--- a/ProyectoGrafos/coordenadas.xlsx
+++ b/ProyectoGrafos/coordenadas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="15345" windowHeight="5400"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="15345" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="47">
   <si>
     <t>sanPedro-santaRosa</t>
   </si>
@@ -268,7 +268,127 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -555,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:V41"/>
+  <dimension ref="A3:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,10 +1895,819 @@
         <v>44</v>
       </c>
     </row>
+    <row r="44" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T44" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V44" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>120</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="3">
+        <v>120</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>80</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G48" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>80</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G50" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G51" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G53" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G54" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G55" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0</v>
+      </c>
+      <c r="P55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>0</v>
+      </c>
+      <c r="R55" s="3">
+        <v>0</v>
+      </c>
+      <c r="S55" s="3">
+        <v>0</v>
+      </c>
+      <c r="T55" s="3">
+        <v>0</v>
+      </c>
+      <c r="U55" s="3">
+        <v>0</v>
+      </c>
+      <c r="V55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G56" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0</v>
+      </c>
+      <c r="P56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>0</v>
+      </c>
+      <c r="R56" s="3">
+        <v>0</v>
+      </c>
+      <c r="S56" s="3">
+        <v>0</v>
+      </c>
+      <c r="T56" s="3">
+        <v>0</v>
+      </c>
+      <c r="U56" s="3">
+        <v>0</v>
+      </c>
+      <c r="V56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G58" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="H27:V41">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"t"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:V59">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"t"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>"&gt;0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
